--- a/Design/需求文档_v0.6（可玩基础流程）/主流程 now.xlsx
+++ b/Design/需求文档_v0.6（可玩基础流程）/主流程 now.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22180" activeTab="2"/>
+    <workbookView windowWidth="16830" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="now" sheetId="1" r:id="rId1"/>
     <sheet name="battleOptimize" sheetId="2" r:id="rId2"/>
     <sheet name="gameFuncAndProcess" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>战斗之后：</t>
   </si>
@@ -36,25 +49,25 @@
     <t>需要将用户数据储存为文件（或者其他形式）</t>
   </si>
   <si>
-    <t>根据所用功能去检查服务端代码  看哪些能够移植过来 具体到功能去接即可</t>
-  </si>
-  <si>
     <t>登陆系统 简易做即可（用账号系统）（服务端登陆代码移植到本地模拟实现）</t>
   </si>
   <si>
-    <t>主界面（空空如也）</t>
-  </si>
-  <si>
-    <t>英雄列表（只是把所有英雄显示） （服务端英雄列表功能代码移植到本地模拟实现）</t>
-  </si>
-  <si>
-    <t>战斗英雄选择界面（点击战斗按钮）</t>
+    <t>进入主界面（空空如也）</t>
+  </si>
+  <si>
+    <t>显示所有英雄，可升级，满级 100.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">战斗英雄选择界面（点击战斗按钮） 进入战斗中的 proto 变为本地的后台数据 </t>
   </si>
   <si>
     <t>和战斗对接选择英雄</t>
   </si>
   <si>
-    <t>战斗结算等主场景和战斗对接部分</t>
+    <t>选英雄进入战斗对接部分 将等级带入</t>
+  </si>
+  <si>
+    <t>战斗结算到回主城</t>
   </si>
   <si>
     <t>整体流程体验并修改</t>
@@ -192,22 +205,31 @@
     <t>流程：</t>
   </si>
   <si>
-    <t>功能：</t>
-  </si>
-  <si>
     <t>登陆</t>
   </si>
   <si>
+    <t>设备号自动登录</t>
+  </si>
+  <si>
     <t>主界面</t>
   </si>
   <si>
+    <t>英雄列表</t>
+  </si>
+  <si>
     <t>战斗</t>
+  </si>
+  <si>
+    <t>进入战斗中的 proto 变为本地的后台数据</t>
+  </si>
+  <si>
+    <t>选英雄进入战斗 将等级带入</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1170,17 +1192,17 @@
   <sheetPr/>
   <dimension ref="D4:L93"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="104.971153846154" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.2980769230769" style="3" customWidth="1"/>
+    <col min="4" max="4" width="104.975" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.3" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1250,7 +1272,7 @@
       </c>
     </row>
     <row r="16" spans="4:6">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1261,41 +1283,41 @@
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="3" t="s">
+    <row r="21" spans="4:4">
+      <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="5"/>
+    </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="5" t="s">
+    <row r="27" spans="4:5">
+      <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="4:5">
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
       <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1396,9 +1418,9 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="212.971153846154" customWidth="1"/>
+    <col min="4" max="4" width="212.975" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:4">
@@ -1565,35 +1587,54 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="I10:N17"/>
+  <dimension ref="C11:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L$1:L$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="83.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="9:14">
-      <c r="I10" t="s">
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="N10" t="s">
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="9:9">
-      <c r="I12" t="s">
+      <c r="D13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="9:9">
-      <c r="I14" t="s">
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="9:9">
-      <c r="I17" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
         <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Design/需求文档_v0.6（可玩基础流程）/主流程 now.xlsx
+++ b/Design/需求文档_v0.6（可玩基础流程）/主流程 now.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16830" windowHeight="11700"/>
+    <workbookView windowWidth="24660" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="now" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>战斗之后：</t>
   </si>
@@ -55,166 +55,181 @@
     <t>进入主界面（空空如也）</t>
   </si>
   <si>
+    <t>显示所有英雄，可升级。</t>
+  </si>
+  <si>
+    <t>货币系统</t>
+  </si>
+  <si>
+    <t>升级需要金币，满级30.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">战斗英雄选择界面（点击战斗按钮） 进入战斗中的 proto 变为本地的后台数据 </t>
+  </si>
+  <si>
+    <t>和战斗对接选择英雄</t>
+  </si>
+  <si>
+    <t>选英雄进入战斗对接部分 将等级带入</t>
+  </si>
+  <si>
+    <t>对接战斗部分代码整理 + 删除以前的代码</t>
+  </si>
+  <si>
+    <t>去掉 proto</t>
+  </si>
+  <si>
+    <t>战斗结算到回主城</t>
+  </si>
+  <si>
+    <t>整体流程体验并修改</t>
+  </si>
+  <si>
+    <t>看是否账号系统变为联网，目前 linux 上跑 .net core 足够</t>
+  </si>
+  <si>
+    <t>美术：</t>
+  </si>
+  <si>
+    <t>确定风格</t>
+  </si>
+  <si>
+    <t>做一版 UI（大体）</t>
+  </si>
+  <si>
+    <t>UI的通用动画（界面打开动画 + 关闭动画）</t>
+  </si>
+  <si>
+    <t>战斗中人物模型 + 动作</t>
+  </si>
+  <si>
+    <t>战斗中特效</t>
+  </si>
+  <si>
+    <t>战斗地图</t>
+  </si>
+  <si>
+    <t>主城场景所用的特效</t>
+  </si>
+  <si>
+    <t>音效系统</t>
+  </si>
+  <si>
+    <t>数值：</t>
+  </si>
+  <si>
+    <t>战斗部分：现在有流程，但是数值不太行，需要整体改下数值 和 难度</t>
+  </si>
+  <si>
+    <t>非战斗部分：</t>
+  </si>
+  <si>
+    <t>大怪的技能（先弄两个）并且配置</t>
+  </si>
+  <si>
+    <t>队长技能的配置</t>
+  </si>
+  <si>
+    <t>battleUI 中 回合数的显示</t>
+  </si>
+  <si>
+    <t>唐依有时候不会攻击了  需要查看下</t>
+  </si>
+  <si>
+    <t>隐墨放完技能也不能动了 应该是 ai 问题</t>
+  </si>
+  <si>
+    <t>瞬移和墨现位置有时候颠倒了（应该是大招升级的时候id变了找不到了）</t>
+  </si>
+  <si>
+    <t>需要更改技能客户端显示 id 的逻辑  现在大招升级就不对了</t>
+  </si>
+  <si>
+    <t>单个击退技能之后如果这个单位死了  那么就不会消失</t>
+  </si>
+  <si>
+    <t>替换英雄的时候  现在不会直接消失  应该直接真实死亡</t>
+  </si>
+  <si>
+    <t>宝箱商店购买的信息不会刷新  只有购买后才会刷新</t>
+  </si>
+  <si>
+    <t>提升攻速的队长技能冷却时间不对</t>
+  </si>
+  <si>
+    <t>大灰熊不能攻击了</t>
+  </si>
+  <si>
+    <t>玩家控制的英雄 自动攻击的时候应该只攻击在攻击距离中的 不能移动</t>
+  </si>
+  <si>
+    <t>怪物出生点都挤在一起了  分散点（可加个通用逻辑：如果创建的时候有单位 那么就在周围寻找一个空地即可）</t>
+  </si>
+  <si>
+    <t>怪物出生的面对角度问题</t>
+  </si>
+  <si>
+    <t>修改为：在准备阶段ai不生效</t>
+  </si>
+  <si>
+    <t>好像不用</t>
+  </si>
+  <si>
+    <t>怪物好像一直是1星（应该是生成的时候增加星级不对）</t>
+  </si>
+  <si>
+    <t>每回合人口给的不对</t>
+  </si>
+  <si>
+    <t>回合结束的时候 所有单位满血</t>
+  </si>
+  <si>
+    <t>增加最大生命的时候 有时候不会按照比例改变（目前看是英雄升星的时候，属性也要看一下）</t>
+  </si>
+  <si>
+    <t>唐依的移动（所有单位的移动） 可能会出界 所以需要有个容错</t>
+  </si>
+  <si>
+    <t>唐依的移动（所有单位的移动） 终点的时候可能会和周围单位重合 所以需要有个容错</t>
+  </si>
+  <si>
+    <t>宝箱中队友增加属性改为队伍中随机（包含队长），或者是如果队友没有的话加到自己的身上。</t>
+  </si>
+  <si>
+    <t>增加队友属性或者给自己属性增加的时候，弹出文字显示（先只是控制台输出 之后会有飘字提示）</t>
+  </si>
+  <si>
+    <t>增加属性的显示都不怎么对 需要改下格式</t>
+  </si>
+  <si>
+    <t>增加一个公共的飘字提示小界面</t>
+  </si>
+  <si>
+    <t>获得的奖励弹出的提示需要改下符合的，如：获得属性的时候需要写上是谁获得属性。</t>
+  </si>
+  <si>
+    <t>获得的奖励在界面上不显示了</t>
+  </si>
+  <si>
+    <t>普通攻击的时候如果选择一个队友 那么现在会停下来，应该是找一个最近的敌人</t>
+  </si>
+  <si>
+    <t>流程：</t>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>设备号自动登录</t>
+  </si>
+  <si>
+    <t>主界面</t>
+  </si>
+  <si>
+    <t>英雄列表</t>
+  </si>
+  <si>
     <t>显示所有英雄，可升级，满级 100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">战斗英雄选择界面（点击战斗按钮） 进入战斗中的 proto 变为本地的后台数据 </t>
-  </si>
-  <si>
-    <t>和战斗对接选择英雄</t>
-  </si>
-  <si>
-    <t>选英雄进入战斗对接部分 将等级带入</t>
-  </si>
-  <si>
-    <t>战斗结算到回主城</t>
-  </si>
-  <si>
-    <t>整体流程体验并修改</t>
-  </si>
-  <si>
-    <t>看是否账号系统变为联网，目前 linux 上跑 .net core 足够</t>
-  </si>
-  <si>
-    <t>美术：</t>
-  </si>
-  <si>
-    <t>确定风格</t>
-  </si>
-  <si>
-    <t>做一版 UI（大体）</t>
-  </si>
-  <si>
-    <t>UI的通用动画（界面打开动画 + 关闭动画）</t>
-  </si>
-  <si>
-    <t>战斗中人物模型 + 动作</t>
-  </si>
-  <si>
-    <t>战斗中特效</t>
-  </si>
-  <si>
-    <t>战斗地图</t>
-  </si>
-  <si>
-    <t>主城场景所用的特效</t>
-  </si>
-  <si>
-    <t>音效系统</t>
-  </si>
-  <si>
-    <t>数值：</t>
-  </si>
-  <si>
-    <t>战斗部分：现在有流程，但是数值不太行，需要整体改下数值 和 难度</t>
-  </si>
-  <si>
-    <t>非战斗部分：</t>
-  </si>
-  <si>
-    <t>大怪的技能（先弄两个）并且配置</t>
-  </si>
-  <si>
-    <t>队长技能的配置</t>
-  </si>
-  <si>
-    <t>battleUI 中 回合数的显示</t>
-  </si>
-  <si>
-    <t>唐依有时候不会攻击了  需要查看下</t>
-  </si>
-  <si>
-    <t>隐墨放完技能也不能动了 应该是 ai 问题</t>
-  </si>
-  <si>
-    <t>瞬移和墨现位置有时候颠倒了（应该是大招升级的时候id变了找不到了）</t>
-  </si>
-  <si>
-    <t>需要更改技能客户端显示 id 的逻辑  现在大招升级就不对了</t>
-  </si>
-  <si>
-    <t>单个击退技能之后如果这个单位死了  那么就不会消失</t>
-  </si>
-  <si>
-    <t>替换英雄的时候  现在不会直接消失  应该直接真实死亡</t>
-  </si>
-  <si>
-    <t>宝箱商店购买的信息不会刷新  只有购买后才会刷新</t>
-  </si>
-  <si>
-    <t>提升攻速的队长技能冷却时间不对</t>
-  </si>
-  <si>
-    <t>大灰熊不能攻击了</t>
-  </si>
-  <si>
-    <t>玩家控制的英雄 自动攻击的时候应该只攻击在攻击距离中的 不能移动</t>
-  </si>
-  <si>
-    <t>怪物出生点都挤在一起了  分散点（可加个通用逻辑：如果创建的时候有单位 那么就在周围寻找一个空地即可）</t>
-  </si>
-  <si>
-    <t>怪物出生的面对角度问题</t>
-  </si>
-  <si>
-    <t>修改为：在准备阶段ai不生效</t>
-  </si>
-  <si>
-    <t>好像不用</t>
-  </si>
-  <si>
-    <t>怪物好像一直是1星（应该是生成的时候增加星级不对）</t>
-  </si>
-  <si>
-    <t>每回合人口给的不对</t>
-  </si>
-  <si>
-    <t>回合结束的时候 所有单位满血</t>
-  </si>
-  <si>
-    <t>增加最大生命的时候 有时候不会按照比例改变（目前看是英雄升星的时候，属性也要看一下）</t>
-  </si>
-  <si>
-    <t>唐依的移动（所有单位的移动） 可能会出界 所以需要有个容错</t>
-  </si>
-  <si>
-    <t>唐依的移动（所有单位的移动） 终点的时候可能会和周围单位重合 所以需要有个容错</t>
-  </si>
-  <si>
-    <t>宝箱中队友增加属性改为队伍中随机（包含队长），或者是如果队友没有的话加到自己的身上。</t>
-  </si>
-  <si>
-    <t>增加队友属性或者给自己属性增加的时候，弹出文字显示（先只是控制台输出 之后会有飘字提示）</t>
-  </si>
-  <si>
-    <t>增加属性的显示都不怎么对 需要改下格式</t>
-  </si>
-  <si>
-    <t>增加一个公共的飘字提示小界面</t>
-  </si>
-  <si>
-    <t>获得的奖励弹出的提示需要改下符合的，如：获得属性的时候需要写上是谁获得属性。</t>
-  </si>
-  <si>
-    <t>获得的奖励在界面上不显示了</t>
-  </si>
-  <si>
-    <t>普通攻击的时候如果选择一个队友 那么现在会停下来，应该是找一个最近的敌人</t>
-  </si>
-  <si>
-    <t>流程：</t>
-  </si>
-  <si>
-    <t>登陆</t>
-  </si>
-  <si>
-    <t>设备号自动登录</t>
-  </si>
-  <si>
-    <t>主界面</t>
-  </si>
-  <si>
-    <t>英雄列表</t>
   </si>
   <si>
     <t>战斗</t>
@@ -857,7 +872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,6 +889,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1190,10 +1208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D4:L93"/>
+  <dimension ref="D4:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1304,25 +1322,25 @@
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:4">
       <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1336,23 +1354,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="3" t="s">
+    <row r="37" spans="4:4">
+      <c r="D37" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="3" t="s">
+    <row r="39" spans="4:4">
+      <c r="D39" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="3" t="s">
+    <row r="41" spans="4:4">
+      <c r="D41" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="3" t="s">
+    <row r="43" spans="4:4">
+      <c r="D43" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1376,13 +1394,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" s="3" customFormat="1" spans="4:4">
+    <row r="54" spans="4:4">
       <c r="D54" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="3" t="s">
+    <row r="56" spans="4:4">
+      <c r="D56" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1391,13 +1409,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="3" t="s">
+    <row r="60" spans="4:4">
+      <c r="D60" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="6:6">
-      <c r="F93" s="6"/>
+    <row r="62" s="3" customFormat="1" spans="4:4">
+      <c r="D62" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1425,7 +1463,7 @@
   <sheetData>
     <row r="5" spans="4:4">
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="4:4">
@@ -1436,146 +1474,146 @@
     </row>
     <row r="8" spans="4:4">
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="4:4">
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="4:4">
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="4:4">
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="4:4">
       <c r="D28" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="4:5">
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1600,41 +1638,41 @@
   <sheetData>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Design/需求文档_v0.6（可玩基础流程）/主流程 now.xlsx
+++ b/Design/需求文档_v0.6（可玩基础流程）/主流程 now.xlsx
@@ -58,7 +58,7 @@
     <t>显示所有英雄，可升级。</t>
   </si>
   <si>
-    <t>货币系统</t>
+    <t>道具系统</t>
   </si>
   <si>
     <t>升级需要金币，满级30.</t>
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="D4:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1327,12 +1327,12 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Design/需求文档_v0.6（可玩基础流程）/主流程 now.xlsx
+++ b/Design/需求文档_v0.6（可玩基础流程）/主流程 now.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24660" windowHeight="11700"/>
+    <workbookView windowWidth="28440" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="now" sheetId="1" r:id="rId1"/>
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="D4:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1345,7 +1345,7 @@
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Design/需求文档_v0.6（可玩基础流程）/主流程 now.xlsx
+++ b/Design/需求文档_v0.6（可玩基础流程）/主流程 now.xlsx
@@ -1211,7 +1211,7 @@
   <dimension ref="D4:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Design/需求文档_v0.6（可玩基础流程）/主流程 now.xlsx
+++ b/Design/需求文档_v0.6（可玩基础流程）/主流程 now.xlsx
@@ -1211,7 +1211,7 @@
   <dimension ref="D4:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1355,7 +1355,7 @@
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
   <dimension ref="C5:E49"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1628,7 +1628,7 @@
   <dimension ref="C11:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="3"/>
